--- a/PondCalc.xlsx
+++ b/PondCalc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Risato\Desktop\Gdrive-WBUG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RisatoMob\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{181DC296-130A-42F4-B867-B8116BA12335}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,16 +381,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,52 +398,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>234562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>78902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>109822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>45</v>
-      </c>
       <c r="B7">
-        <v>345621</v>
+        <v>30492</v>
       </c>
     </row>
   </sheetData>
